--- a/public/cohort/fileExcel/xlsxUIT/OPEN/EC_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/EC_OPEN.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -941,7 +941,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>Lesbrieven: Crisis en Vervoer</t>
+    <t>Lesbrieven: Crisis en Vragers &amp; Aanbieders</t>
   </si>
   <si>
     <t xml:space="preserve">A, D, F, G </t>
@@ -950,7 +950,7 @@
     <t>Opdracht: keuzeonderwerp</t>
   </si>
   <si>
-    <t>K</t>
+    <t>K, J</t>
   </si>
   <si>
     <t>Lesbrief Jong &amp; Oud</t>
@@ -959,7 +959,16 @@
     <t>A, E, F, G, H, I</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesbrieven: Verdienen &amp; uitgeven. Werk. </t>
+    <t>Lesbrieven: Crisis en Vervoer</t>
+  </si>
+  <si>
+    <t>kies...</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Verdienen &amp; uitgeven. Arbeidsmarkt.</t>
   </si>
   <si>
     <t>A, H, I</t>
@@ -977,19 +986,49 @@
     <t>A, D, E, F, G, H, I, J</t>
   </si>
   <si>
+    <t xml:space="preserve">Lesbrieven: Verdienen &amp; uitgeven. Werk. </t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
     <t>Lesbrief Vraag en Aanbod</t>
   </si>
   <si>
-    <t>Lesbrieven gedragseconomie + vraag en aanbod</t>
+    <t>Lesbrieven arbeidsmarkt + vraag en aanbod</t>
   </si>
   <si>
     <t>Lesbrief Levensloop tot (Zie studiewijzer)</t>
   </si>
   <si>
     <t>Lesbrief Levensloop</t>
+  </si>
+  <si>
+    <t>Lesbrieven gedragseconomie + vraag en aanbod</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Vraag en aanbod en Marktgedrag</t>
+  </si>
+  <si>
+    <t>A, D, E, F, G</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Marktgedrag, Marktresultaat en overheidsinvloed</t>
+  </si>
+  <si>
+    <t>A,D,E,F,G</t>
+  </si>
+  <si>
+    <t>Lesbrieven: Marktresultaat en overheidsinvloed , Levensloop</t>
+  </si>
+  <si>
+    <t>A,D,E,F,G,H,I</t>
+  </si>
+  <si>
+    <t>Lesbrief Welvaart, keuze onderwerp en experiment</t>
+  </si>
+  <si>
+    <t>H,I,J,K</t>
   </si>
   <si>
     <t xml:space="preserve">Lesbrieven: Levensloop, Arbeid, Vraag en aanbod. </t>
@@ -999,9 +1038,6 @@
   </si>
   <si>
     <t>Lesbrieven: Marktgedrag, Vraag en aanbod.</t>
-  </si>
-  <si>
-    <t>A, D, E, F, G, H</t>
   </si>
   <si>
     <t>Lesbrief Monetaire Zaken</t>
@@ -2080,7 +2116,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2226,7 +2262,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2580,7 +2616,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2952,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -2971,10 +3007,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -3046,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -3063,11 +3099,9 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>101</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P19" s="32"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3110,7 +3144,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -3118,7 +3152,7 @@
       </c>
       <c r="AD19" s="7">
         <f>IF(AND($P19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="7">
         <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
@@ -3126,7 +3160,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -3138,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -3157,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3252,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -3324,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -3343,10 +3377,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -3663,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3680,10 +3714,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3755,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -3772,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
         <v>80</v>
@@ -3847,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3864,10 +3898,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4550,7 +4584,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4904,7 +4938,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5931,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5948,10 +5982,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6023,7 +6057,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -6040,7 +6074,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
         <v>80</v>
@@ -6115,7 +6149,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6132,10 +6166,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -7347,7 +7381,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7736,7 +7770,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -7828,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -7920,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -9621,7 +9655,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10010,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>73</v>
@@ -10102,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -10194,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>77</v>
@@ -11395,7 +11429,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11568,7 +11602,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11613,7 +11647,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11629,7 +11663,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11663,10 +11697,10 @@
         <v>8</v>
       </c>
       <c r="N7" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>82</v>
@@ -11865,7 +11899,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11910,7 +11944,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11926,7 +11960,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -11935,7 +11969,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633414352</v>
       </c>
       <c r="D10" s="2">
         <v>1024</v>
@@ -11964,7 +11998,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>86</v>
@@ -13683,7 +13717,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13839,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -13856,7 +13890,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -13901,7 +13935,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -13917,7 +13951,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -13935,7 +13969,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -13954,7 +13988,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>82</v>
@@ -14057,7 +14091,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14153,7 +14187,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14198,7 +14232,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -14214,7 +14248,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -14223,7 +14257,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633414352</v>
       </c>
       <c r="D10" s="2">
         <v>291</v>
@@ -14252,7 +14286,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>86</v>
@@ -14607,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14624,10 +14658,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14699,7 +14733,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14716,10 +14750,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14791,7 +14825,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -14808,10 +14842,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -16501,7 +16535,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633414352</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16873,7 +16907,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16890,10 +16924,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -16965,7 +16999,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -16982,10 +17016,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17057,7 +17091,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -17074,10 +17108,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -18267,7 +18301,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -18413,17 +18447,17 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2">
         <v>1033</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -18440,7 +18474,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18485,7 +18519,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -18501,7 +18535,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -18516,10 +18550,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18536,7 +18570,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18581,7 +18615,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -18597,7 +18631,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -18612,10 +18646,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -18625,14 +18659,14 @@
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18677,7 +18711,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -18693,7 +18727,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -18709,10 +18743,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -18729,7 +18763,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -18774,7 +18808,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -18790,7 +18824,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -18799,7 +18833,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20537,7 +20571,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -20683,7 +20717,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2">
         <v>295</v>
@@ -20693,7 +20727,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -20710,7 +20744,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20755,7 +20789,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -20771,7 +20805,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -20789,7 +20823,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -20806,7 +20840,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20851,7 +20885,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -20867,7 +20901,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -20885,7 +20919,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -20902,7 +20936,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -20947,7 +20981,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -20963,7 +20997,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -20982,7 +21016,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -20999,7 +21033,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21044,7 +21078,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -21060,7 +21094,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -21069,7 +21103,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602361111</v>
+        <v>44385.633425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -21441,7 +21475,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -21460,10 +21494,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -21535,7 +21569,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -21548,14 +21582,16 @@
         <v>100</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="46">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -21599,7 +21635,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -21607,7 +21643,7 @@
       </c>
       <c r="AD19" s="7">
         <f>IF(AND($P19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="7">
         <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
@@ -21615,7 +21651,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -21627,7 +21663,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -21643,13 +21679,13 @@
         <v>8</v>
       </c>
       <c r="N20" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21718,30 +21754,32 @@
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="I21" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="45"/>
+      <c r="L21" s="45">
+        <v>100</v>
+      </c>
       <c r="M21" s="27" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -21805,38 +21843,26 @@
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>1032</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="45">
-        <v>2</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="45">
-        <v>100</v>
-      </c>
+      <c r="L22" s="45"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="46">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>106</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/EC_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/EC_OPEN.xlsx
@@ -944,6 +944,9 @@
     <t>Lesbrieven: Crisis en Vragers &amp; Aanbieders</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t xml:space="preserve">A, D, F, G </t>
   </si>
   <si>
@@ -960,9 +963,6 @@
   </si>
   <si>
     <t>Lesbrieven: Crisis en Vervoer</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>K</t>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3266,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766168981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633414352</v>
+        <v>44387.766157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633414352</v>
+        <v>44387.766157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11703,7 +11703,7 @@
         <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11781,7 +11781,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11803,7 +11803,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11882,7 +11882,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633414352</v>
+        <v>44387.766157407</v>
       </c>
       <c r="D10" s="2">
         <v>1024</v>
@@ -11979,7 +11979,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -12001,7 +12001,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -13873,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -13969,7 +13969,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -13991,7 +13991,7 @@
         <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -14069,7 +14069,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -14170,7 +14170,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633414352</v>
+        <v>44387.766157407</v>
       </c>
       <c r="D10" s="2">
         <v>291</v>
@@ -14267,7 +14267,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -14289,7 +14289,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633414352</v>
+        <v>44387.766157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18474,7 +18474,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18570,7 +18570,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18763,7 +18763,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -18833,7 +18833,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20744,7 +20744,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20840,7 +20840,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21033,7 +21033,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633425926</v>
+        <v>44387.766157407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
